--- a/ActionTable.xlsx
+++ b/ActionTable.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ActionTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -239,9 +237,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -546,172 +547,291 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <v>8</v>
+      </c>
+      <c r="AE7">
+        <v>7</v>
+      </c>
+      <c r="AF7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="AC8">
+        <v>11</v>
+      </c>
+      <c r="AE8">
+        <v>12</v>
+      </c>
+      <c r="AF8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>17</v>
+      </c>
+      <c r="AG11">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -813,28 +933,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ActionTable.xlsx
+++ b/ActionTable.xlsx
@@ -546,15 +546,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH28" sqref="AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
@@ -578,7 +579,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C1" t="s">
@@ -799,134 +800,365 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>17</v>
       </c>
       <c r="O11">
-        <v>17</v>
-      </c>
-      <c r="AG11">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="K13">
+        <v>21</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="U13">
+        <v>21</v>
+      </c>
+      <c r="V13">
+        <v>21</v>
+      </c>
+      <c r="W13">
+        <v>21</v>
+      </c>
+      <c r="X13">
+        <v>21</v>
+      </c>
+      <c r="Y13">
+        <v>21</v>
+      </c>
+      <c r="Z13">
+        <v>21</v>
+      </c>
+      <c r="AA13">
+        <v>21</v>
+      </c>
+      <c r="AB13">
+        <v>21</v>
+      </c>
+      <c r="AG13">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="K15">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>24</v>
+      </c>
+      <c r="N15">
+        <v>23</v>
+      </c>
+      <c r="O15">
+        <v>23</v>
+      </c>
+      <c r="U15">
+        <v>24</v>
+      </c>
+      <c r="V15">
+        <v>24</v>
+      </c>
+      <c r="W15">
+        <v>24</v>
+      </c>
+      <c r="X15">
+        <v>24</v>
+      </c>
+      <c r="Y15">
+        <v>24</v>
+      </c>
+      <c r="Z15">
+        <v>24</v>
+      </c>
+      <c r="AA15">
+        <v>24</v>
+      </c>
+      <c r="AB15">
+        <v>24</v>
+      </c>
+      <c r="AG15">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="J16">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>30</v>
+      </c>
+      <c r="S18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="L19">
+        <v>33</v>
+      </c>
+      <c r="T19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="E20">
+        <v>34</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="L20">
+        <v>34</v>
+      </c>
+      <c r="T20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>36</v>
+      </c>
+      <c r="V21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>37</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
+      </c>
+      <c r="J22">
+        <v>37</v>
+      </c>
+      <c r="L22">
+        <v>37</v>
+      </c>
+      <c r="T22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>39</v>
+      </c>
+      <c r="U23">
+        <v>38</v>
+      </c>
+      <c r="V23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="W25">
+        <v>41</v>
+      </c>
+      <c r="X25">
+        <v>42</v>
+      </c>
+      <c r="Y25">
+        <v>43</v>
+      </c>
+      <c r="Z25">
+        <v>44</v>
+      </c>
+      <c r="AA25">
+        <v>45</v>
+      </c>
+      <c r="AB25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AC26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AE27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AF28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="H30">
+        <v>51</v>
+      </c>
+      <c r="AG30">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/ActionTable.xlsx
+++ b/ActionTable.xlsx
@@ -548,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH28" sqref="AH28"/>
+      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,14 +697,14 @@
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -742,11 +742,11 @@
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
       <c r="C7">
         <v>7</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
       </c>
       <c r="P7">
         <v>7</v>

--- a/ActionTable.xlsx
+++ b/ActionTable.xlsx
@@ -547,8 +547,8 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,22 +1073,22 @@
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C25">
-        <v>40</v>
-      </c>
-      <c r="E25">
-        <v>40</v>
-      </c>
-      <c r="J25">
-        <v>40</v>
-      </c>
-      <c r="L25">
-        <v>40</v>
       </c>
       <c r="W25">
         <v>41</v>

--- a/ActionTable.xlsx
+++ b/ActionTable.xlsx
@@ -547,8 +547,8 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:XFD12"/>
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6">
+      <c r="H6">
         <v>5</v>
       </c>
       <c r="AG6">
